--- a/クリックポスト発送情報/20200909113912/英子日本发货表格9.8.xlsx
+++ b/クリックポスト発送情報/20200909113912/英子日本发货表格9.8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -88,6 +88,14 @@
   <si>
     <t xml:space="preserve"> 
 090-4837-0019</t>
+  </si>
+  <si>
+    <t>628597456760</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628597456756</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -273,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,7 +728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1095,7 +1103,9 @@
       <c r="I2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="1">
@@ -1120,7 +1130,9 @@
       <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="5" spans="1:181" ht="121.95" customHeight="1"/>
